--- a/biology/Médecine/1171_en_santé_et_médecine/1171_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1171_en_santé_et_médecine/1171_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1171_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1171_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1171 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1171_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1171_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1171-1172 : la peste qui sévit à Constantinople se répand à Venise, rapportée par les navires du doge Vital II Michele[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1171-1172 : la peste qui sévit à Constantinople se répand à Venise, rapportée par les navires du doge Vital II Michele.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1171_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1171_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,15 +555,17 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fondation, par Carin et Harchet Masson, de l'hôpital Saint-Gervais de Paris, « premier asile de nuit de la capitale pour les vagabonds [...], qui ne peuvent y demeurer plus de trois nuits consécutives[2] ».
-Fondation par Hug de Cervelló (ca), archevêque de Tarragone en Catalogne, d'un hôpital qui fusionnera en  1464 avec l'hôpital municipal pour former l'hôpital Sainte-Thècle[3].
-L'hôpital Saint-Léonard de Chesterfield, dans le Derbyshire en Angleterre, est attesté en tant que léproserie[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fondation, par Carin et Harchet Masson, de l'hôpital Saint-Gervais de Paris, « premier asile de nuit de la capitale pour les vagabonds [...], qui ne peuvent y demeurer plus de trois nuits consécutives ».
+Fondation par Hug de Cervelló (ca), archevêque de Tarragone en Catalogne, d'un hôpital qui fusionnera en  1464 avec l'hôpital municipal pour former l'hôpital Sainte-Thècle.
+L'hôpital Saint-Léonard de Chesterfield, dans le Derbyshire en Angleterre, est attesté en tant que léproserie,.
 Avant 1171 :
-Fondation à Richmond, dans le Yorkshire, de l'hôpital Saint-Nicolas par Henri II, roi d'Angleterre[6].
-Fondation par Ralph de Multon, de l'hôpital de Stainmore, dans le Yorkshire en Angleterre, hospice pour voyageurs dépendant du prieuré de Marrick (en)[7].
-1165-1171 : fondation de la léproserie de Bois-Halbout par Robert Fitz-Erneis, membre de la famille Tesson, à Cesny en Normandie, maison « confiée à l'abbaye du Val avec l'approbation d'Henri II, évêque de Bayeux[8],[9] ».</t>
+Fondation à Richmond, dans le Yorkshire, de l'hôpital Saint-Nicolas par Henri II, roi d'Angleterre.
+Fondation par Ralph de Multon, de l'hôpital de Stainmore, dans le Yorkshire en Angleterre, hospice pour voyageurs dépendant du prieuré de Marrick (en).
+1165-1171 : fondation de la léproserie de Bois-Halbout par Robert Fitz-Erneis, membre de la famille Tesson, à Cesny en Normandie, maison « confiée à l'abbaye du Val avec l'approbation d'Henri II, évêque de Bayeux, ».</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1171_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1171_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Entre 1171 et 1193 : fl. Bernard, médecin, auprès de Guilhem VII et Guilhem VIII, seigneurs de Montpellier[10].
-Entre 1171 et 1219 : fl. Raoul (Radulphus), l'un des « deux premiers médecins narbonnais connus [avec Bremond (fl. 1155-1159)], l'un et l'autre parmi les plus proches d'Ermengarde, vicomtesse de Narbonne[11] ».
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Entre 1171 et 1193 : fl. Bernard, médecin, auprès de Guilhem VII et Guilhem VIII, seigneurs de Montpellier.
+Entre 1171 et 1219 : fl. Raoul (Radulphus), l'un des « deux premiers médecins narbonnais connus [avec Bremond (fl. 1155-1159)], l'un et l'autre parmi les plus proches d'Ermengarde, vicomtesse de Narbonne ».
 </t>
         </is>
       </c>
